--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_16-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_16-26.xlsx
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>15:0</t>
+  </si>
+  <si>
+    <t>PEDICORT 5MG/5ML SYP. 100 ML</t>
   </si>
   <si>
     <t>PROGEST 400 VAG SUPP</t>
@@ -1272,17 +1275,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1298,17 +1301,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>39.899999999999999</v>
+        <v>85</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1316,7 +1319,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1324,13 +1327,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>80.75</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1350,13 +1353,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>-86.5</v>
+        <v>80.75</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1376,17 +1379,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>21</v>
+        <v>-86.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1394,7 +1397,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1402,17 +1405,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1428,17 +1431,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>58</v>
+        <v>-23</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1454,17 +1457,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1480,17 +1483,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1506,17 +1509,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1524,7 +1527,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1532,17 +1535,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1550,7 +1553,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1558,17 +1561,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1576,7 +1579,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1584,51 +1587,77 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="K36" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
+        <v>59</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
+        <v>39</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>20</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c t="s" r="N36" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="26.25" customHeight="1">
+      <c r="K37" s="10">
         <v>1522.1700000000001</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="11">
-        <v>59</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c t="s" r="F37" s="12">
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="11">
         <v>60</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c t="s" r="I37" s="14">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c t="s" r="F38" s="12">
         <v>61</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c t="s" r="I38" s="14">
+        <v>62</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="110">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1732,10 +1761,13 @@
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:N38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
